--- a/biology/Botanique/Liste_des_espèces_de_pommiers/Liste_des_espèces_de_pommiers.xlsx
+++ b/biology/Botanique/Liste_des_espèces_de_pommiers/Liste_des_espèces_de_pommiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_pommiers</t>
+          <t>Liste_des_espèces_de_pommiers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente une liste des espèces de pommier. Elle recense toutes les espèces naturelles et hybrides selon leur sources. Ces espèces sont classées par sources, puis par ordre alphabétique accompagnés des noms des auteurs à l’origine des sources.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_pommiers</t>
+          <t>Liste_des_espèces_de_pommiers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (13 mai 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (13 mai 2017) :
 Malus angustifolia (Aiton) Michx.
 Malus arnoldiana (Rehder) Rehder
 Malus asiatica Nakai
